--- a/biology/Médecine/Sympatholytique/Sympatholytique.xlsx
+++ b/biology/Médecine/Sympatholytique/Sympatholytique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sympatholytique est un adjectif qui s'applique aux substances qui diminuent ou suppriment les effets de la stimulation du système sympathique.
 Ces substances peuvent agir de façon prédominante sur les récepteurs alpha ou bêta :
@@ -514,7 +526,9 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le système nerveux comprend le système nerveux central et le système nerveux périphérique ou autonome. Ce dernier est lui-même divisé en deux grands systèmes : sympathique et parasympathique.
 Le système sympathique ou domaine adrénergique est constitué par l'ensemble des neurones dont le médiateur chimique est la noradrénaline ainsi que par les cellules capables de libérer de l'adrénaline.La noradrénaline, l'adrénaline et leur précurseur direct(la dopamine) forment la famille chimique des catécholamines.
@@ -549,15 +563,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Alpha-bloquants non sélectifs
-Phentolamine, phenoxybenzamine
-Mécanisme d'action : fixation directe sur les récepteurs alpha1 et alpha2 empêchant l'action pharmacologique de la noradrénaline.
+          <t>Alpha-bloquants non sélectifs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Phentolamine, phenoxybenzamine</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mécanisme d'action : fixation directe sur les récepteurs alpha1 et alpha2 empêchant l'action pharmacologique de la noradrénaline.
 Indication : traitement de l'HTA
-Effets secondaires : vasodilatation(entraînant une tachycardie), angine de poitrine, hypotension orthostatique, congestion nasale et insuffisance d'éjaculation(usage à long terme)
-Alpha1-bloquants sélectifs
-Prazosine (Minipress), doxazosine, indoramine, terazosine
-Mécanisme d'action : antagonistes des récepteurs alpha1 empêchant les effets contractiles de la noradrénaline sur les muscles lisses. Vasodilatation artérielle périphérique
-Indication : HTA, insuffisance cardiaque, obstruction urinaire due à l'hyperplasie prostatique bénigne[1],[2].</t>
+Effets secondaires : vasodilatation(entraînant une tachycardie), angine de poitrine, hypotension orthostatique, congestion nasale et insuffisance d'éjaculation(usage à long terme)</t>
         </is>
       </c>
     </row>
@@ -582,13 +600,59 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Alpha-bloquant</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Alpha1-bloquants sélectifs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Prazosine (Minipress), doxazosine, indoramine, terazosine</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mécanisme d'action : antagonistes des récepteurs alpha1 empêchant les effets contractiles de la noradrénaline sur les muscles lisses. Vasodilatation artérielle périphérique
+Indication : HTA, insuffisance cardiaque, obstruction urinaire due à l'hyperplasie prostatique bénigne,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sympatholytique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sympatholytique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Bêta-bloquant</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Propriétés pharmacologiques
-Deux types :
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Propriétés pharmacologiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Deux types :
 Ceux qui sont en rapport avec les récepteurs bêta
 Au niveau du cœur : effets chronotrope et inotrope négatifs (bradycardie et réduction de la force d'éjection systolique)entraînant une chute du débit cardiaque et une diminution du travail cardiaque
 Au niveau des vaisseaux : augmentation des résistances périphériques
@@ -607,31 +671,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Sympatholytique</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sympatholytique</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Indications thérapeutiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Angine de poitrine
 Troubles de rythme cardiaque
@@ -644,45 +710,118 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Sympatholytique</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sympatholytique</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Effets indésirables et contre-indications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Effets indésirables
-troubles de la conductibilité cardiaque
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Effets indésirables</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>troubles de la conductibilité cardiaque
 défaillance cardiaque
 asthénie transitoire
 troubles digestifs
 bronchoconstriction
-hypoglycémies
-Contre-indications
-grossesse
-allaitement (sauf le propranolol)
-Interactions médicamenteuses
-contre indiquée : floctafénine
-avec précaution : amiodarone, digitaliques, autres anti-arythmiques[3],[2].</t>
+hypoglycémies</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sympatholytique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sympatholytique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Effets indésirables et contre-indications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Contre-indications</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>grossesse
+allaitement (sauf le propranolol)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sympatholytique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sympatholytique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Effets indésirables et contre-indications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Interactions médicamenteuses</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>contre indiquée : floctafénine
+avec précaution : amiodarone, digitaliques, autres anti-arythmiques,.</t>
         </is>
       </c>
     </row>
